--- a/teaching/traditional_assets/database/data/belize/belize_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/belize/belize_banks_regional.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0148</v>
+        <v>-0.061</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,34 +600,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001571447355363005</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001254061436299541</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.2</v>
+        <v>-2.3</v>
       </c>
       <c r="L2">
-        <v>0.4792899408284024</v>
+        <v>-0.1133004926108374</v>
       </c>
       <c r="M2">
-        <v>6.965000000000001</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>0.157579185520362</v>
+        <v>0.0957592339261286</v>
       </c>
       <c r="O2">
-        <v>0.4299382716049384</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="P2">
-        <v>6.965000000000001</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>0.157579185520362</v>
+        <v>0.0957592339261286</v>
       </c>
       <c r="R2">
-        <v>0.4299382716049384</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,67 +636,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>53.2</v>
+        <v>55.5</v>
       </c>
       <c r="V2">
-        <v>1.203619909502262</v>
+        <v>0.7592339261285911</v>
       </c>
       <c r="W2">
-        <v>0.1968408262454435</v>
+        <v>-0.0224609375</v>
       </c>
       <c r="X2">
-        <v>0.07339290206913628</v>
+        <v>0.08752619807710092</v>
       </c>
       <c r="Y2">
-        <v>0.1234479241763072</v>
+        <v>-0.1099871355771009</v>
       </c>
       <c r="Z2">
-        <v>0.6728453591917953</v>
+        <v>0.4126016260162602</v>
       </c>
       <c r="AA2">
-        <v>0.0008437894175555437</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07336641955579548</v>
+        <v>0.08750317121269791</v>
       </c>
       <c r="AC2">
-        <v>-0.07252263013823994</v>
+        <v>-0.08750317121269791</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE2">
-        <v>0.2344253969436521</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.2344253969436521</v>
+        <v>0.3</v>
       </c>
       <c r="AG2">
-        <v>-52.96557460305635</v>
+        <v>-55.2</v>
       </c>
       <c r="AH2">
-        <v>0.005275760738424598</v>
+        <v>0.004087193460490464</v>
       </c>
       <c r="AI2">
-        <v>0.002284081545124849</v>
+        <v>0.0027124773960217</v>
       </c>
       <c r="AJ2">
-        <v>6.04245323342391</v>
+        <v>-3.083798882681566</v>
       </c>
       <c r="AK2">
-        <v>-1.071430975029215</v>
+        <v>-1.001814882032668</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>-529.6557460305635</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +710,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0148</v>
+        <v>-0.061</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001571447355363005</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001254061436299541</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.2</v>
+        <v>-2.3</v>
       </c>
       <c r="L3">
-        <v>0.4792899408284024</v>
+        <v>-0.1133004926108374</v>
       </c>
       <c r="M3">
-        <v>6.965000000000001</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>0.157579185520362</v>
+        <v>0.0957592339261286</v>
       </c>
       <c r="O3">
-        <v>0.4299382716049384</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="P3">
-        <v>6.965000000000001</v>
+        <v>7</v>
       </c>
       <c r="Q3">
-        <v>0.157579185520362</v>
+        <v>0.0957592339261286</v>
       </c>
       <c r="R3">
-        <v>0.4299382716049384</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,67 +755,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>53.2</v>
+        <v>55.5</v>
       </c>
       <c r="V3">
-        <v>1.203619909502262</v>
+        <v>0.7592339261285911</v>
       </c>
       <c r="W3">
-        <v>0.1968408262454435</v>
+        <v>-0.0224609375</v>
       </c>
       <c r="X3">
-        <v>0.07339290206913628</v>
+        <v>0.08752619807710092</v>
       </c>
       <c r="Y3">
-        <v>0.1234479241763072</v>
+        <v>-0.1099871355771009</v>
       </c>
       <c r="Z3">
-        <v>0.6728453591917953</v>
+        <v>0.4126016260162602</v>
       </c>
       <c r="AA3">
-        <v>0.0008437894175555437</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07336641955579548</v>
+        <v>0.08750317121269791</v>
       </c>
       <c r="AC3">
-        <v>-0.07252263013823994</v>
+        <v>-0.08750317121269791</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE3">
-        <v>0.2344253969436521</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.2344253969436521</v>
+        <v>0.3</v>
       </c>
       <c r="AG3">
-        <v>-52.96557460305635</v>
+        <v>-55.2</v>
       </c>
       <c r="AH3">
-        <v>0.005275760738424598</v>
+        <v>0.004087193460490464</v>
       </c>
       <c r="AI3">
-        <v>0.002284081545124849</v>
+        <v>0.0027124773960217</v>
       </c>
       <c r="AJ3">
-        <v>6.04245323342391</v>
+        <v>-3.083798882681566</v>
       </c>
       <c r="AK3">
-        <v>-1.071430975029215</v>
+        <v>-1.001814882032668</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-529.6557460305635</v>
       </c>
     </row>
   </sheetData>
